--- a/lab1/Биполярная/Биполярная.xlsx
+++ b/lab1/Биполярная/Биполярная.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab1/Биполярная/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F17BEE-F87B-4A4A-847C-A3CC49E25364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272C5A2-EF30-354E-B3BD-7ED8F4F8D469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3740" windowWidth="28800" windowHeight="16080" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
   <dimension ref="B10:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D21"/>
+      <selection activeCell="B10" sqref="B10:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
